--- a/biology/Médecine/Kyste_de_Baker/Kyste_de_Baker.xlsx
+++ b/biology/Médecine/Kyste_de_Baker/Kyste_de_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kyste de Baker (ou kyste poplité) est un kyste, c'est-à-dire une poche close entourée d'une membrane épithéliale distincte et se développant anormalement dans la face arrière du genou (que l'on appelle le creux poplité), généralement aux dépens de la bourse séreuse poplitée.
 C'est une tuméfaction régulière, rénitente (mi-dure) et non battante à l'auscultation. Dans les cas extrêmes, elle a la taille d'une balle de tennis. La douleur et la gêne fonctionnelle augmentent avec la taille.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient de celui du chirurgien anglais William Morrant Baker, né en 1839 et mort en 1896.
 </t>
@@ -543,7 +557,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le kyste de Baker peut résulter d'un envahissement de liquide synovial à l'intérieur d'une zone arrière du genou fragilisée par :
 une maladie de l'articulation (cause mécanique telle qu'arthrose, chondrite, nécrose, atteintes méniscales et ligamentaires... ) ;
@@ -577,7 +593,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Douleur et sensation de gonflement à l'arrière du genou.
 Tuméfaction visible quand le patient est debout ou en décubitus ventral.
@@ -609,7 +627,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'auscultation éventuellement complétée par :
 une échographie en cas de kyste de petit volume,
@@ -644,7 +664,9 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il dépend de la cause identifiée. 
 La chirurgie est très rarement nécessaire sauf :
@@ -679,6 +701,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
